--- a/out/CE/FigA_17.xlsx
+++ b/out/CE/FigA_17.xlsx
@@ -382,133 +382,3367 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30955A95-468C-489A-AB5F-44E538843D2B}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:CW11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection sqref="A1:CW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>0.65629999999999999</v>
+      </c>
+      <c r="B1">
+        <v>0.66427999999999998</v>
+      </c>
+      <c r="C1">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="D1">
+        <v>0.67054000000000002</v>
+      </c>
+      <c r="E1">
+        <v>0.66022000000000003</v>
+      </c>
+      <c r="F1">
+        <v>0.66464000000000001</v>
+      </c>
+      <c r="G1">
+        <v>0.66186</v>
+      </c>
+      <c r="H1">
+        <v>0.64734000000000003</v>
+      </c>
+      <c r="I1">
+        <v>0.66678000000000004</v>
+      </c>
+      <c r="J1">
+        <v>0.67403999999999997</v>
+      </c>
+      <c r="K1">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="L1">
+        <v>0.64885999999999999</v>
+      </c>
+      <c r="M1">
+        <v>0.63748000000000005</v>
+      </c>
+      <c r="N1">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="O1">
+        <v>0.66003999999999996</v>
+      </c>
+      <c r="P1">
+        <v>0.64617999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>0.70072000000000001</v>
+      </c>
+      <c r="R1">
+        <v>0.62616000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.66254000000000002</v>
+      </c>
+      <c r="T1">
+        <v>0.66434000000000004</v>
+      </c>
+      <c r="U1">
+        <v>0.63515999999999995</v>
+      </c>
+      <c r="V1">
+        <v>0.64134000000000002</v>
+      </c>
+      <c r="W1">
+        <v>0.65961999999999998</v>
+      </c>
+      <c r="X1">
+        <v>0.65736000000000006</v>
+      </c>
+      <c r="Y1">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="Z1">
+        <v>0.65537999999999996</v>
+      </c>
+      <c r="AA1">
+        <v>0.65224000000000004</v>
+      </c>
+      <c r="AB1">
+        <v>0.65127999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.64958000000000005</v>
+      </c>
+      <c r="AD1">
+        <v>0.66261999999999999</v>
+      </c>
+      <c r="AE1">
+        <v>0.64444000000000001</v>
+      </c>
+      <c r="AF1">
+        <v>0.65903999999999996</v>
+      </c>
+      <c r="AG1">
+        <v>0.65434000000000003</v>
+      </c>
+      <c r="AH1">
+        <v>0.63536000000000004</v>
+      </c>
+      <c r="AI1">
+        <v>0.64717999999999998</v>
+      </c>
+      <c r="AJ1">
+        <v>0.63922000000000001</v>
+      </c>
+      <c r="AK1">
+        <v>0.68093999999999999</v>
+      </c>
+      <c r="AL1">
+        <v>0.66266000000000003</v>
+      </c>
+      <c r="AM1">
+        <v>0.63497999999999999</v>
+      </c>
+      <c r="AN1">
         <v>0.66766000000000003</v>
       </c>
-      <c r="B1">
-        <v>0.63648000000000005</v>
-      </c>
-      <c r="C1">
-        <v>0.65207000000000004</v>
+      <c r="AO1">
+        <v>0.65064</v>
+      </c>
+      <c r="AP1">
+        <v>0.67347999999999997</v>
+      </c>
+      <c r="AQ1">
+        <v>0.65378000000000003</v>
+      </c>
+      <c r="AR1">
+        <v>0.66135999999999995</v>
+      </c>
+      <c r="AS1">
+        <v>0.67603999999999997</v>
+      </c>
+      <c r="AT1">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="AU1">
+        <v>0.65578000000000003</v>
+      </c>
+      <c r="AV1">
+        <v>0.65066000000000002</v>
+      </c>
+      <c r="AW1">
+        <v>0.65264</v>
+      </c>
+      <c r="AX1">
+        <v>0.64570000000000005</v>
+      </c>
+      <c r="AY1">
+        <v>0.66608000000000001</v>
+      </c>
+      <c r="AZ1">
+        <v>0.67856000000000005</v>
+      </c>
+      <c r="BA1">
+        <v>0.64573999999999998</v>
+      </c>
+      <c r="BB1">
+        <v>0.65336000000000005</v>
+      </c>
+      <c r="BC1">
+        <v>0.65012000000000003</v>
+      </c>
+      <c r="BD1">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="BE1">
+        <v>0.65314000000000005</v>
+      </c>
+      <c r="BF1">
+        <v>0.67596000000000001</v>
+      </c>
+      <c r="BG1">
+        <v>0.65224000000000004</v>
+      </c>
+      <c r="BH1">
+        <v>0.68655999999999995</v>
+      </c>
+      <c r="BI1">
+        <v>0.65317999999999998</v>
+      </c>
+      <c r="BJ1">
+        <v>0.64012000000000002</v>
+      </c>
+      <c r="BK1">
+        <v>0.64936000000000005</v>
+      </c>
+      <c r="BL1">
+        <v>0.67434000000000005</v>
+      </c>
+      <c r="BM1">
+        <v>0.66359999999999997</v>
+      </c>
+      <c r="BN1">
+        <v>0.65085999999999999</v>
+      </c>
+      <c r="BO1">
+        <v>0.65478000000000003</v>
+      </c>
+      <c r="BP1">
+        <v>0.66176000000000001</v>
+      </c>
+      <c r="BQ1">
+        <v>0.64715999999999996</v>
+      </c>
+      <c r="BR1">
+        <v>0.65491999999999995</v>
+      </c>
+      <c r="BS1">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="BT1">
+        <v>0.62953999999999999</v>
+      </c>
+      <c r="BU1">
+        <v>0.64032</v>
+      </c>
+      <c r="BV1">
+        <v>0.67267999999999994</v>
+      </c>
+      <c r="BW1">
+        <v>0.66378000000000004</v>
+      </c>
+      <c r="BX1">
+        <v>0.65151999999999999</v>
+      </c>
+      <c r="BY1">
+        <v>0.67432000000000003</v>
+      </c>
+      <c r="BZ1">
+        <v>0.65844000000000003</v>
+      </c>
+      <c r="CA1">
+        <v>0.67391999999999996</v>
+      </c>
+      <c r="CB1">
+        <v>0.64212000000000002</v>
+      </c>
+      <c r="CC1">
+        <v>0.66876000000000002</v>
+      </c>
+      <c r="CD1">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="CE1">
+        <v>0.69764000000000004</v>
+      </c>
+      <c r="CF1">
+        <v>0.64646000000000003</v>
+      </c>
+      <c r="CG1">
+        <v>0.67120000000000002</v>
+      </c>
+      <c r="CH1">
+        <v>0.64522000000000002</v>
+      </c>
+      <c r="CI1">
+        <v>0.64556000000000002</v>
+      </c>
+      <c r="CJ1">
+        <v>0.68376000000000003</v>
+      </c>
+      <c r="CK1">
+        <v>0.63226000000000004</v>
+      </c>
+      <c r="CL1">
+        <v>0.65505999999999998</v>
+      </c>
+      <c r="CM1">
+        <v>0.65873999999999999</v>
+      </c>
+      <c r="CN1">
+        <v>0.66412000000000004</v>
+      </c>
+      <c r="CO1">
+        <v>0.63566</v>
+      </c>
+      <c r="CP1">
+        <v>0.64798</v>
+      </c>
+      <c r="CQ1">
+        <v>0.64995999999999998</v>
+      </c>
+      <c r="CR1">
+        <v>0.66552</v>
+      </c>
+      <c r="CS1">
+        <v>0.65859999999999996</v>
+      </c>
+      <c r="CT1">
+        <v>0.65173999999999999</v>
+      </c>
+      <c r="CU1">
+        <v>0.62849999999999995</v>
+      </c>
+      <c r="CV1">
+        <v>0.65137999999999996</v>
+      </c>
+      <c r="CW1">
+        <v>0.65655000000000019</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.62226000000000004</v>
+        <v>0.61299999999999999</v>
       </c>
       <c r="B2">
-        <v>0.60218000000000005</v>
+        <v>0.61990000000000001</v>
       </c>
       <c r="C2">
-        <v>0.61221999999999999</v>
+        <v>0.63295999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.62626000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.60707999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.65395999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0.64993999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.66390000000000005</v>
+      </c>
+      <c r="I2">
+        <v>0.6119</v>
+      </c>
+      <c r="J2">
+        <v>0.64136000000000004</v>
+      </c>
+      <c r="K2">
+        <v>0.63458000000000003</v>
+      </c>
+      <c r="L2">
+        <v>0.62673999999999996</v>
+      </c>
+      <c r="M2">
+        <v>0.63219999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0.63314000000000004</v>
+      </c>
+      <c r="O2">
+        <v>0.62014000000000002</v>
+      </c>
+      <c r="P2">
+        <v>0.62575999999999998</v>
+      </c>
+      <c r="Q2">
+        <v>0.61806000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.62373999999999996</v>
+      </c>
+      <c r="S2">
+        <v>0.66246000000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.62363999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.61895999999999995</v>
+      </c>
+      <c r="V2">
+        <v>0.65603999999999996</v>
+      </c>
+      <c r="W2">
+        <v>0.63009999999999999</v>
+      </c>
+      <c r="X2">
+        <v>0.61958000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.63656000000000001</v>
+      </c>
+      <c r="Z2">
+        <v>0.58642000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.64161999999999997</v>
+      </c>
+      <c r="AB2">
+        <v>0.61663999999999997</v>
+      </c>
+      <c r="AC2">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="AD2">
+        <v>0.63615999999999995</v>
+      </c>
+      <c r="AE2">
+        <v>0.63895999999999997</v>
+      </c>
+      <c r="AF2">
+        <v>0.64305999999999996</v>
+      </c>
+      <c r="AG2">
+        <v>0.63375999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.61731999999999998</v>
+      </c>
+      <c r="AI2">
+        <v>0.62117999999999995</v>
+      </c>
+      <c r="AJ2">
+        <v>0.64651999999999998</v>
+      </c>
+      <c r="AK2">
+        <v>0.64580000000000004</v>
+      </c>
+      <c r="AL2">
+        <v>0.60953999999999997</v>
+      </c>
+      <c r="AM2">
+        <v>0.65166000000000002</v>
+      </c>
+      <c r="AN2">
+        <v>0.63248000000000004</v>
+      </c>
+      <c r="AO2">
+        <v>0.62285999999999997</v>
+      </c>
+      <c r="AP2">
+        <v>0.63297999999999999</v>
+      </c>
+      <c r="AQ2">
+        <v>0.62021999999999999</v>
+      </c>
+      <c r="AR2">
+        <v>0.63822000000000001</v>
+      </c>
+      <c r="AS2">
+        <v>0.62649999999999995</v>
+      </c>
+      <c r="AT2">
+        <v>0.63234000000000001</v>
+      </c>
+      <c r="AU2">
+        <v>0.64419999999999999</v>
+      </c>
+      <c r="AV2">
+        <v>0.61960000000000004</v>
+      </c>
+      <c r="AW2">
+        <v>0.61062000000000005</v>
+      </c>
+      <c r="AX2">
+        <v>0.63238000000000005</v>
+      </c>
+      <c r="AY2">
+        <v>0.63560000000000005</v>
+      </c>
+      <c r="AZ2">
+        <v>0.629</v>
+      </c>
+      <c r="BA2">
+        <v>0.62663999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>0.62958000000000003</v>
+      </c>
+      <c r="BC2">
+        <v>0.65314000000000005</v>
+      </c>
+      <c r="BD2">
+        <v>0.63007999999999997</v>
+      </c>
+      <c r="BE2">
+        <v>0.61760000000000004</v>
+      </c>
+      <c r="BF2">
+        <v>0.61417999999999995</v>
+      </c>
+      <c r="BG2">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="BH2">
+        <v>0.61019999999999996</v>
+      </c>
+      <c r="BI2">
+        <v>0.62714000000000003</v>
+      </c>
+      <c r="BJ2">
+        <v>0.63949999999999996</v>
+      </c>
+      <c r="BK2">
+        <v>0.63016000000000005</v>
+      </c>
+      <c r="BL2">
+        <v>0.63448000000000004</v>
+      </c>
+      <c r="BM2">
+        <v>0.63392000000000004</v>
+      </c>
+      <c r="BN2">
+        <v>0.65932000000000002</v>
+      </c>
+      <c r="BO2">
+        <v>0.62282000000000004</v>
+      </c>
+      <c r="BP2">
+        <v>0.64954000000000001</v>
+      </c>
+      <c r="BQ2">
+        <v>0.63195999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>0.62558000000000002</v>
+      </c>
+      <c r="BS2">
+        <v>0.63231999999999999</v>
+      </c>
+      <c r="BT2">
+        <v>0.60031999999999996</v>
+      </c>
+      <c r="BU2">
+        <v>0.62307999999999997</v>
+      </c>
+      <c r="BV2">
+        <v>0.64866000000000001</v>
+      </c>
+      <c r="BW2">
+        <v>0.61463999999999996</v>
+      </c>
+      <c r="BX2">
+        <v>0.66605999999999999</v>
+      </c>
+      <c r="BY2">
+        <v>0.61812</v>
+      </c>
+      <c r="BZ2">
+        <v>0.62161999999999995</v>
+      </c>
+      <c r="CA2">
+        <v>0.63331999999999999</v>
+      </c>
+      <c r="CB2">
+        <v>0.63022</v>
+      </c>
+      <c r="CC2">
+        <v>0.61824000000000001</v>
+      </c>
+      <c r="CD2">
+        <v>0.62651999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.61750000000000005</v>
+      </c>
+      <c r="CF2">
+        <v>0.66647999999999996</v>
+      </c>
+      <c r="CG2">
+        <v>0.625</v>
+      </c>
+      <c r="CH2">
+        <v>0.63604000000000005</v>
+      </c>
+      <c r="CI2">
+        <v>0.63214000000000004</v>
+      </c>
+      <c r="CJ2">
+        <v>0.63741999999999999</v>
+      </c>
+      <c r="CK2">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="CL2">
+        <v>0.63382000000000005</v>
+      </c>
+      <c r="CM2">
+        <v>0.61917999999999995</v>
+      </c>
+      <c r="CN2">
+        <v>0.60841999999999996</v>
+      </c>
+      <c r="CO2">
+        <v>0.63695999999999997</v>
+      </c>
+      <c r="CP2">
+        <v>0.65066000000000002</v>
+      </c>
+      <c r="CQ2">
+        <v>0.63402000000000003</v>
+      </c>
+      <c r="CR2">
+        <v>0.62831999999999999</v>
+      </c>
+      <c r="CS2">
+        <v>0.65454000000000001</v>
+      </c>
+      <c r="CT2">
+        <v>0.62794000000000005</v>
+      </c>
+      <c r="CU2">
+        <v>0.62970000000000004</v>
+      </c>
+      <c r="CV2">
+        <v>0.6401</v>
+      </c>
+      <c r="CW2">
+        <v>0.63117800000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>0.57765999999999995</v>
+      </c>
+      <c r="B3">
+        <v>0.58742000000000005</v>
+      </c>
+      <c r="C3">
+        <v>0.57862000000000002</v>
+      </c>
+      <c r="D3">
+        <v>0.59692000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.56557999999999997</v>
+      </c>
+      <c r="F3">
+        <v>0.58564000000000005</v>
+      </c>
+      <c r="G3">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="H3">
+        <v>0.57906000000000002</v>
+      </c>
+      <c r="I3">
+        <v>0.58364000000000005</v>
+      </c>
+      <c r="J3">
+        <v>0.58677999999999997</v>
+      </c>
+      <c r="K3">
+        <v>0.58067999999999997</v>
+      </c>
+      <c r="L3">
+        <v>0.57633999999999996</v>
+      </c>
+      <c r="M3">
+        <v>0.60096000000000005</v>
+      </c>
+      <c r="N3">
+        <v>0.57996000000000003</v>
+      </c>
+      <c r="O3">
+        <v>0.59802</v>
+      </c>
+      <c r="P3">
+        <v>0.59343999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>0.58782000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.58050000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.59486000000000006</v>
+      </c>
+      <c r="T3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="U3">
+        <v>0.58031999999999995</v>
+      </c>
+      <c r="V3">
+        <v>0.60407999999999995</v>
+      </c>
+      <c r="W3">
+        <v>0.61646000000000001</v>
+      </c>
+      <c r="X3">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="Y3">
+        <v>0.56313999999999997</v>
+      </c>
+      <c r="Z3">
+        <v>0.58748</v>
+      </c>
+      <c r="AA3">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="AB3">
+        <v>0.59833999999999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.60548000000000002</v>
+      </c>
+      <c r="AD3">
+        <v>0.59106000000000003</v>
+      </c>
+      <c r="AE3">
+        <v>0.59109999999999996</v>
+      </c>
+      <c r="AF3">
+        <v>0.61794000000000004</v>
+      </c>
+      <c r="AG3">
+        <v>0.57406000000000001</v>
+      </c>
+      <c r="AH3">
+        <v>0.60311999999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.58628000000000002</v>
+      </c>
+      <c r="AJ3">
+        <v>0.57421999999999995</v>
+      </c>
+      <c r="AK3">
+        <v>0.59314</v>
+      </c>
+      <c r="AL3">
+        <v>0.60746</v>
+      </c>
+      <c r="AM3">
+        <v>0.58126</v>
+      </c>
+      <c r="AN3">
+        <v>0.57811999999999997</v>
+      </c>
+      <c r="AO3">
+        <v>0.57855999999999996</v>
+      </c>
+      <c r="AP3">
+        <v>0.58401999999999998</v>
+      </c>
+      <c r="AQ3">
+        <v>0.59141999999999995</v>
+      </c>
+      <c r="AR3">
+        <v>0.56754000000000004</v>
+      </c>
+      <c r="AS3">
+        <v>0.58453999999999995</v>
+      </c>
+      <c r="AT3">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="AU3">
+        <v>0.63582000000000005</v>
+      </c>
+      <c r="AV3">
+        <v>0.59060000000000001</v>
+      </c>
+      <c r="AW3">
+        <v>0.60196000000000005</v>
+      </c>
+      <c r="AX3">
+        <v>0.61251999999999995</v>
+      </c>
+      <c r="AY3">
+        <v>0.60119999999999996</v>
+      </c>
+      <c r="AZ3">
+        <v>0.58062000000000002</v>
+      </c>
+      <c r="BA3">
+        <v>0.5776</v>
+      </c>
+      <c r="BB3">
+        <v>0.59497999999999995</v>
+      </c>
+      <c r="BC3">
+        <v>0.61373999999999995</v>
+      </c>
+      <c r="BD3">
+        <v>0.56752000000000002</v>
+      </c>
+      <c r="BE3">
+        <v>0.58208000000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.59375999999999995</v>
+      </c>
+      <c r="BG3">
+        <v>0.60050000000000003</v>
+      </c>
+      <c r="BH3">
+        <v>0.57116</v>
+      </c>
+      <c r="BI3">
+        <v>0.57416</v>
+      </c>
+      <c r="BJ3">
+        <v>0.57987999999999995</v>
+      </c>
+      <c r="BK3">
+        <v>0.57286000000000004</v>
+      </c>
+      <c r="BL3">
+        <v>0.58367999999999998</v>
+      </c>
+      <c r="BM3">
+        <v>0.59236</v>
+      </c>
+      <c r="BN3">
+        <v>0.60207999999999995</v>
+      </c>
+      <c r="BO3">
+        <v>0.58872000000000002</v>
+      </c>
+      <c r="BP3">
+        <v>0.55647999999999997</v>
+      </c>
+      <c r="BQ3">
+        <v>0.60324</v>
+      </c>
+      <c r="BR3">
+        <v>0.58897999999999995</v>
+      </c>
+      <c r="BS3">
+        <v>0.60109999999999997</v>
+      </c>
+      <c r="BT3">
+        <v>0.60509999999999997</v>
+      </c>
+      <c r="BU3">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="BV3">
+        <v>0.61268</v>
+      </c>
+      <c r="BW3">
+        <v>0.59687999999999997</v>
+      </c>
+      <c r="BX3">
+        <v>0.6008</v>
+      </c>
+      <c r="BY3">
+        <v>0.60662000000000005</v>
+      </c>
+      <c r="BZ3">
+        <v>0.59392</v>
+      </c>
+      <c r="CA3">
+        <v>0.60326000000000002</v>
+      </c>
+      <c r="CB3">
+        <v>0.63424000000000003</v>
+      </c>
+      <c r="CC3">
+        <v>0.57067999999999997</v>
+      </c>
+      <c r="CD3">
+        <v>0.59540000000000004</v>
+      </c>
+      <c r="CE3">
+        <v>0.57067999999999997</v>
+      </c>
+      <c r="CF3">
+        <v>0.58762000000000003</v>
+      </c>
+      <c r="CG3">
+        <v>0.60296000000000005</v>
+      </c>
+      <c r="CH3">
+        <v>0.58113999999999999</v>
+      </c>
+      <c r="CI3">
+        <v>0.60145999999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.61692000000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.61585999999999996</v>
+      </c>
+      <c r="CL3">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="CM3">
+        <v>0.57450000000000001</v>
+      </c>
+      <c r="CN3">
+        <v>0.58255999999999997</v>
+      </c>
+      <c r="CO3">
+        <v>0.58306000000000002</v>
+      </c>
+      <c r="CP3">
+        <v>0.54847999999999997</v>
+      </c>
+      <c r="CQ3">
+        <v>0.60324</v>
+      </c>
+      <c r="CR3">
+        <v>0.59853999999999996</v>
+      </c>
+      <c r="CS3">
+        <v>0.57998000000000005</v>
+      </c>
+      <c r="CT3">
+        <v>0.59652000000000005</v>
+      </c>
+      <c r="CU3">
+        <v>0.59045999999999998</v>
+      </c>
+      <c r="CV3">
+        <v>0.58553999999999995</v>
+      </c>
+      <c r="CW3">
+        <v>0.59086240000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.56410000000000005</v>
+      </c>
+      <c r="B4">
+        <v>0.56289999999999996</v>
+      </c>
+      <c r="C4">
+        <v>0.5474</v>
+      </c>
+      <c r="D4">
+        <v>0.59785999999999995</v>
+      </c>
+      <c r="E4">
+        <v>0.57884000000000002</v>
+      </c>
+      <c r="F4">
+        <v>0.56084000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.57642000000000004</v>
+      </c>
+      <c r="H4">
+        <v>0.59406000000000003</v>
+      </c>
+      <c r="I4">
+        <v>0.56391999999999998</v>
+      </c>
+      <c r="J4">
+        <v>0.56735999999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="L4">
+        <v>0.55888000000000004</v>
+      </c>
+      <c r="M4">
+        <v>0.57691999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.56588000000000005</v>
+      </c>
+      <c r="O4">
+        <v>0.58516000000000001</v>
+      </c>
+      <c r="P4">
+        <v>0.60048000000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.58997999999999995</v>
+      </c>
+      <c r="R4">
+        <v>0.58667999999999998</v>
+      </c>
+      <c r="S4">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="T4">
+        <v>0.59387999999999996</v>
+      </c>
+      <c r="U4">
+        <v>0.56644000000000005</v>
+      </c>
+      <c r="V4">
+        <v>0.58838000000000001</v>
+      </c>
+      <c r="W4">
+        <v>0.5847</v>
+      </c>
+      <c r="X4">
+        <v>0.55725999999999998</v>
+      </c>
+      <c r="Y4">
+        <v>0.58572000000000002</v>
+      </c>
+      <c r="Z4">
+        <v>0.59496000000000004</v>
+      </c>
+      <c r="AA4">
+        <v>0.56355999999999995</v>
+      </c>
+      <c r="AB4">
+        <v>0.56921999999999995</v>
+      </c>
+      <c r="AC4">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="AD4">
+        <v>0.59245999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="AF4">
+        <v>0.55545999999999995</v>
+      </c>
+      <c r="AG4">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="AH4">
+        <v>0.56257999999999997</v>
+      </c>
+      <c r="AI4">
+        <v>0.59057999999999999</v>
+      </c>
+      <c r="AJ4">
+        <v>0.56006</v>
+      </c>
+      <c r="AK4">
+        <v>0.56852000000000003</v>
+      </c>
+      <c r="AL4">
+        <v>0.57887999999999995</v>
+      </c>
+      <c r="AM4">
+        <v>0.58860000000000001</v>
+      </c>
+      <c r="AN4">
+        <v>0.59250000000000003</v>
+      </c>
+      <c r="AO4">
+        <v>0.58453999999999995</v>
+      </c>
+      <c r="AP4">
+        <v>0.58521999999999996</v>
+      </c>
+      <c r="AQ4">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="AR4">
+        <v>0.61572000000000005</v>
+      </c>
+      <c r="AS4">
+        <v>0.59318000000000004</v>
+      </c>
+      <c r="AT4">
+        <v>0.58406000000000002</v>
+      </c>
+      <c r="AU4">
+        <v>0.53410000000000002</v>
+      </c>
+      <c r="AV4">
+        <v>0.57598000000000005</v>
+      </c>
+      <c r="AW4">
+        <v>0.61031999999999997</v>
+      </c>
+      <c r="AX4">
+        <v>0.57830000000000004</v>
+      </c>
+      <c r="AY4">
+        <v>0.57720000000000005</v>
+      </c>
+      <c r="AZ4">
         <v>0.58045999999999998</v>
       </c>
-      <c r="B3">
-        <v>0.57630000000000003</v>
-      </c>
-      <c r="C3">
-        <v>0.57838000000000001</v>
+      <c r="BA4">
+        <v>0.59177999999999997</v>
+      </c>
+      <c r="BB4">
+        <v>0.56303999999999998</v>
+      </c>
+      <c r="BC4">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="BD4">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="BE4">
+        <v>0.59314</v>
+      </c>
+      <c r="BF4">
+        <v>0.55664000000000002</v>
+      </c>
+      <c r="BG4">
+        <v>0.56176000000000004</v>
+      </c>
+      <c r="BH4">
+        <v>0.58945999999999998</v>
+      </c>
+      <c r="BI4">
+        <v>0.57640000000000002</v>
+      </c>
+      <c r="BJ4">
+        <v>0.57621999999999995</v>
+      </c>
+      <c r="BK4">
+        <v>0.59284000000000003</v>
+      </c>
+      <c r="BL4">
+        <v>0.59243999999999997</v>
+      </c>
+      <c r="BM4">
+        <v>0.56091999999999997</v>
+      </c>
+      <c r="BN4">
+        <v>0.55867999999999995</v>
+      </c>
+      <c r="BO4">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="BP4">
+        <v>0.56011999999999995</v>
+      </c>
+      <c r="BQ4">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="BR4">
+        <v>0.56108000000000002</v>
+      </c>
+      <c r="BS4">
+        <v>0.59672000000000003</v>
+      </c>
+      <c r="BT4">
+        <v>0.56957999999999998</v>
+      </c>
+      <c r="BU4">
+        <v>0.57735999999999998</v>
+      </c>
+      <c r="BV4">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="BW4">
+        <v>0.56796000000000002</v>
+      </c>
+      <c r="BX4">
+        <v>0.54867999999999995</v>
+      </c>
+      <c r="BY4">
+        <v>0.57398000000000005</v>
+      </c>
+      <c r="BZ4">
+        <v>0.59521999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.58465999999999996</v>
+      </c>
+      <c r="CB4">
+        <v>0.59848000000000001</v>
+      </c>
+      <c r="CC4">
+        <v>0.57884000000000002</v>
+      </c>
+      <c r="CD4">
+        <v>0.55515999999999999</v>
+      </c>
+      <c r="CE4">
+        <v>0.59255999999999998</v>
+      </c>
+      <c r="CF4">
+        <v>0.58665999999999996</v>
+      </c>
+      <c r="CG4">
+        <v>0.58308000000000004</v>
+      </c>
+      <c r="CH4">
+        <v>0.57520000000000004</v>
+      </c>
+      <c r="CI4">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="CJ4">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="CK4">
+        <v>0.55993999999999999</v>
+      </c>
+      <c r="CL4">
+        <v>0.59558</v>
+      </c>
+      <c r="CM4">
+        <v>0.56420000000000003</v>
+      </c>
+      <c r="CN4">
+        <v>0.56913999999999998</v>
+      </c>
+      <c r="CO4">
+        <v>0.59219999999999995</v>
+      </c>
+      <c r="CP4">
+        <v>0.57726</v>
+      </c>
+      <c r="CQ4">
+        <v>0.59323999999999999</v>
+      </c>
+      <c r="CR4">
+        <v>0.56976000000000004</v>
+      </c>
+      <c r="CS4">
+        <v>0.56688000000000005</v>
+      </c>
+      <c r="CT4">
+        <v>0.59367999999999999</v>
+      </c>
+      <c r="CU4">
+        <v>0.58198000000000005</v>
+      </c>
+      <c r="CV4">
+        <v>0.58620000000000005</v>
+      </c>
+      <c r="CW4">
+        <v>0.57655640000000008</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.55745999999999996</v>
-      </c>
-      <c r="B4">
-        <v>0.60063999999999995</v>
-      </c>
-      <c r="C4">
-        <v>0.57904999999999995</v>
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="B5">
+        <v>0.58550000000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.55134000000000005</v>
+      </c>
+      <c r="D5">
+        <v>0.57340000000000002</v>
+      </c>
+      <c r="E5">
+        <v>0.55498000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.56157999999999997</v>
+      </c>
+      <c r="G5">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H5">
+        <v>0.55998000000000003</v>
+      </c>
+      <c r="I5">
+        <v>0.53586</v>
+      </c>
+      <c r="J5">
+        <v>0.55549999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.55298000000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.55628</v>
+      </c>
+      <c r="M5">
+        <v>0.57050000000000001</v>
+      </c>
+      <c r="N5">
+        <v>0.56716</v>
+      </c>
+      <c r="O5">
+        <v>0.55456000000000005</v>
+      </c>
+      <c r="P5">
+        <v>0.57391999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.56489999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.54078000000000004</v>
+      </c>
+      <c r="S5">
+        <v>0.53583999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.55478000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.57606000000000002</v>
+      </c>
+      <c r="V5">
+        <v>0.5927</v>
+      </c>
+      <c r="W5">
+        <v>0.56967999999999996</v>
+      </c>
+      <c r="X5">
+        <v>0.54264000000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.57091999999999998</v>
+      </c>
+      <c r="Z5">
+        <v>0.56606000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.57138</v>
+      </c>
+      <c r="AB5">
+        <v>0.5544</v>
+      </c>
+      <c r="AC5">
+        <v>0.55779999999999996</v>
+      </c>
+      <c r="AD5">
+        <v>0.53491999999999995</v>
+      </c>
+      <c r="AE5">
+        <v>0.56903999999999999</v>
+      </c>
+      <c r="AF5">
+        <v>0.58309999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>0.55976000000000004</v>
+      </c>
+      <c r="AH5">
+        <v>0.56830000000000003</v>
+      </c>
+      <c r="AI5">
+        <v>0.55345999999999995</v>
+      </c>
+      <c r="AJ5">
+        <v>0.55645999999999995</v>
+      </c>
+      <c r="AK5">
+        <v>0.57011999999999996</v>
+      </c>
+      <c r="AL5">
+        <v>0.58465999999999996</v>
+      </c>
+      <c r="AM5">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="AN5">
+        <v>0.53078000000000003</v>
+      </c>
+      <c r="AO5">
+        <v>0.54323999999999995</v>
+      </c>
+      <c r="AP5">
+        <v>0.53342000000000001</v>
+      </c>
+      <c r="AQ5">
+        <v>0.56257999999999997</v>
+      </c>
+      <c r="AR5">
+        <v>0.54725999999999997</v>
+      </c>
+      <c r="AS5">
+        <v>0.54447999999999996</v>
+      </c>
+      <c r="AT5">
+        <v>0.59206000000000003</v>
+      </c>
+      <c r="AU5">
+        <v>0.57362000000000002</v>
+      </c>
+      <c r="AV5">
+        <v>0.56928000000000001</v>
+      </c>
+      <c r="AW5">
+        <v>0.56647999999999998</v>
+      </c>
+      <c r="AX5">
+        <v>0.57882</v>
+      </c>
+      <c r="AY5">
+        <v>0.53869999999999996</v>
+      </c>
+      <c r="AZ5">
+        <v>0.55920000000000003</v>
+      </c>
+      <c r="BA5">
+        <v>0.55406</v>
+      </c>
+      <c r="BB5">
+        <v>0.55622000000000005</v>
+      </c>
+      <c r="BC5">
+        <v>0.55196000000000001</v>
+      </c>
+      <c r="BD5">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="BE5">
+        <v>0.55274000000000001</v>
+      </c>
+      <c r="BF5">
+        <v>0.55071999999999999</v>
+      </c>
+      <c r="BG5">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="BH5">
+        <v>0.53181999999999996</v>
+      </c>
+      <c r="BI5">
+        <v>0.55032000000000003</v>
+      </c>
+      <c r="BJ5">
+        <v>0.54605999999999999</v>
+      </c>
+      <c r="BK5">
+        <v>0.58604000000000001</v>
+      </c>
+      <c r="BL5">
+        <v>0.57679999999999998</v>
+      </c>
+      <c r="BM5">
+        <v>0.56408000000000003</v>
+      </c>
+      <c r="BN5">
+        <v>0.5605</v>
+      </c>
+      <c r="BO5">
+        <v>0.57011999999999996</v>
+      </c>
+      <c r="BP5">
+        <v>0.56035999999999997</v>
+      </c>
+      <c r="BQ5">
+        <v>0.57882</v>
+      </c>
+      <c r="BR5">
+        <v>0.59526000000000001</v>
+      </c>
+      <c r="BS5">
+        <v>0.54935999999999996</v>
+      </c>
+      <c r="BT5">
+        <v>0.56911999999999996</v>
+      </c>
+      <c r="BU5">
+        <v>0.58220000000000005</v>
+      </c>
+      <c r="BV5">
+        <v>0.55633999999999995</v>
+      </c>
+      <c r="BW5">
+        <v>0.53503999999999996</v>
+      </c>
+      <c r="BX5">
+        <v>0.55679999999999996</v>
+      </c>
+      <c r="BY5">
+        <v>0.56072</v>
+      </c>
+      <c r="BZ5">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="CA5">
+        <v>0.54312000000000005</v>
+      </c>
+      <c r="CB5">
+        <v>0.57594000000000001</v>
+      </c>
+      <c r="CC5">
+        <v>0.54457999999999995</v>
+      </c>
+      <c r="CD5">
+        <v>0.57567999999999997</v>
+      </c>
+      <c r="CE5">
+        <v>0.56910000000000005</v>
+      </c>
+      <c r="CF5">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="CG5">
+        <v>0.58779999999999999</v>
+      </c>
+      <c r="CH5">
+        <v>0.55711999999999995</v>
+      </c>
+      <c r="CI5">
+        <v>0.58279999999999998</v>
+      </c>
+      <c r="CJ5">
+        <v>0.56923999999999997</v>
+      </c>
+      <c r="CK5">
+        <v>0.58416000000000001</v>
+      </c>
+      <c r="CL5">
+        <v>0.56077999999999995</v>
+      </c>
+      <c r="CM5">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="CN5">
+        <v>0.54110000000000003</v>
+      </c>
+      <c r="CO5">
+        <v>0.55432000000000003</v>
+      </c>
+      <c r="CP5">
+        <v>0.55681999999999998</v>
+      </c>
+      <c r="CQ5">
+        <v>0.56355999999999995</v>
+      </c>
+      <c r="CR5">
+        <v>0.55435999999999996</v>
+      </c>
+      <c r="CS5">
+        <v>0.56589999999999996</v>
+      </c>
+      <c r="CT5">
+        <v>0.57142000000000004</v>
+      </c>
+      <c r="CU5">
+        <v>0.55755999999999994</v>
+      </c>
+      <c r="CV5">
+        <v>0.56621999999999995</v>
+      </c>
+      <c r="CW5">
+        <v>0.5605036000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.52102000000000004</v>
+      </c>
+      <c r="B6">
+        <v>0.53598000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.5514</v>
+      </c>
+      <c r="D6">
+        <v>0.52561999999999998</v>
+      </c>
+      <c r="E6">
+        <v>0.55784</v>
+      </c>
+      <c r="F6">
+        <v>0.55678000000000005</v>
+      </c>
+      <c r="G6">
+        <v>0.54883999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.54986000000000002</v>
+      </c>
+      <c r="I6">
+        <v>0.55864000000000003</v>
+      </c>
+      <c r="J6">
+        <v>0.5423</v>
+      </c>
+      <c r="K6">
+        <v>0.55928</v>
+      </c>
+      <c r="L6">
+        <v>0.54945999999999995</v>
+      </c>
+      <c r="M6">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="N6">
+        <v>0.52466000000000002</v>
+      </c>
+      <c r="O6">
+        <v>0.55578000000000005</v>
+      </c>
+      <c r="P6">
+        <v>0.53495999999999999</v>
+      </c>
+      <c r="Q6">
+        <v>0.56159999999999999</v>
+      </c>
+      <c r="R6">
+        <v>0.54142000000000001</v>
+      </c>
+      <c r="S6">
+        <v>0.54225999999999996</v>
+      </c>
+      <c r="T6">
+        <v>0.57691999999999999</v>
+      </c>
+      <c r="U6">
+        <v>0.53998000000000002</v>
+      </c>
+      <c r="V6">
+        <v>0.54232000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.55525999999999998</v>
+      </c>
+      <c r="X6">
+        <v>0.57894000000000001</v>
+      </c>
+      <c r="Y6">
         <v>0.55813999999999997</v>
       </c>
-      <c r="B5">
-        <v>0.56432000000000004</v>
-      </c>
-      <c r="C5">
-        <v>0.56123000000000001</v>
+      <c r="Z6">
+        <v>0.55086000000000002</v>
+      </c>
+      <c r="AA6">
+        <v>0.53957999999999995</v>
+      </c>
+      <c r="AB6">
+        <v>0.57898000000000005</v>
+      </c>
+      <c r="AC6">
+        <v>0.57120000000000004</v>
+      </c>
+      <c r="AD6">
+        <v>0.54435999999999996</v>
+      </c>
+      <c r="AE6">
+        <v>0.54286000000000001</v>
+      </c>
+      <c r="AF6">
+        <v>0.55925999999999998</v>
+      </c>
+      <c r="AG6">
+        <v>0.52178000000000002</v>
+      </c>
+      <c r="AH6">
+        <v>0.54174</v>
+      </c>
+      <c r="AI6">
+        <v>0.55471999999999999</v>
+      </c>
+      <c r="AJ6">
+        <v>0.53942000000000001</v>
+      </c>
+      <c r="AK6">
+        <v>0.54432000000000003</v>
+      </c>
+      <c r="AL6">
+        <v>0.54374</v>
+      </c>
+      <c r="AM6">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="AN6">
+        <v>0.54534000000000005</v>
+      </c>
+      <c r="AO6">
+        <v>0.56188000000000005</v>
+      </c>
+      <c r="AP6">
+        <v>0.54803999999999997</v>
+      </c>
+      <c r="AQ6">
+        <v>0.52922000000000002</v>
+      </c>
+      <c r="AR6">
+        <v>0.57357999999999998</v>
+      </c>
+      <c r="AS6">
+        <v>0.53702000000000005</v>
+      </c>
+      <c r="AT6">
+        <v>0.55215999999999998</v>
+      </c>
+      <c r="AU6">
+        <v>0.56428</v>
+      </c>
+      <c r="AV6">
+        <v>0.53656000000000004</v>
+      </c>
+      <c r="AW6">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="AX6">
+        <v>0.56286999999999998</v>
+      </c>
+      <c r="AY6">
+        <v>0.57764000000000004</v>
+      </c>
+      <c r="AZ6">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="BA6">
+        <v>0.55942000000000003</v>
+      </c>
+      <c r="BB6">
+        <v>0.51876</v>
+      </c>
+      <c r="BC6">
+        <v>0.56223999999999996</v>
+      </c>
+      <c r="BD6">
+        <v>0.56423999999999996</v>
+      </c>
+      <c r="BE6">
+        <v>0.54457999999999995</v>
+      </c>
+      <c r="BF6">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="BG6">
+        <v>0.55471999999999999</v>
+      </c>
+      <c r="BH6">
+        <v>0.57382</v>
+      </c>
+      <c r="BI6">
+        <v>0.55740000000000001</v>
+      </c>
+      <c r="BJ6">
+        <v>0.54818</v>
+      </c>
+      <c r="BK6">
+        <v>0.54488000000000003</v>
+      </c>
+      <c r="BL6">
+        <v>0.52332000000000001</v>
+      </c>
+      <c r="BM6">
+        <v>0.52873999999999999</v>
+      </c>
+      <c r="BN6">
+        <v>0.56552000000000002</v>
+      </c>
+      <c r="BO6">
+        <v>0.57842000000000005</v>
+      </c>
+      <c r="BP6">
+        <v>0.52747999999999995</v>
+      </c>
+      <c r="BQ6">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="BR6">
+        <v>0.54759999999999998</v>
+      </c>
+      <c r="BS6">
+        <v>0.53805999999999998</v>
+      </c>
+      <c r="BT6">
+        <v>0.54446000000000006</v>
+      </c>
+      <c r="BU6">
+        <v>0.56935999999999998</v>
+      </c>
+      <c r="BV6">
+        <v>0.54193999999999998</v>
+      </c>
+      <c r="BW6">
+        <v>0.52393999999999996</v>
+      </c>
+      <c r="BX6">
+        <v>0.55606</v>
+      </c>
+      <c r="BY6">
+        <v>0.55057999999999996</v>
+      </c>
+      <c r="BZ6">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="CA6">
+        <v>0.56845999999999997</v>
+      </c>
+      <c r="CB6">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="CC6">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="CD6">
+        <v>0.55584</v>
+      </c>
+      <c r="CE6">
+        <v>0.52898000000000001</v>
+      </c>
+      <c r="CF6">
+        <v>0.52636000000000005</v>
+      </c>
+      <c r="CG6">
+        <v>0.55176000000000003</v>
+      </c>
+      <c r="CH6">
+        <v>0.55198000000000003</v>
+      </c>
+      <c r="CI6">
+        <v>0.55557999999999996</v>
+      </c>
+      <c r="CJ6">
+        <v>0.55503999999999998</v>
+      </c>
+      <c r="CK6">
+        <v>0.55962000000000001</v>
+      </c>
+      <c r="CL6">
+        <v>0.55893999999999999</v>
+      </c>
+      <c r="CM6">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="CN6">
+        <v>0.55674000000000001</v>
+      </c>
+      <c r="CO6">
+        <v>0.55566000000000004</v>
+      </c>
+      <c r="CP6">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="CQ6">
+        <v>0.53239999999999998</v>
+      </c>
+      <c r="CR6">
+        <v>0.55984</v>
+      </c>
+      <c r="CS6">
+        <v>0.51646000000000003</v>
+      </c>
+      <c r="CT6">
+        <v>0.55457999999999996</v>
+      </c>
+      <c r="CU6">
+        <v>0.55411999999999995</v>
+      </c>
+      <c r="CV6">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="CW6">
+        <v>0.54967890000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>0.54349999999999998</v>
-      </c>
-      <c r="B6">
-        <v>0.56640000000000001</v>
-      </c>
-      <c r="C6">
-        <v>0.55495000000000005</v>
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.52898000000000001</v>
+      </c>
+      <c r="B7">
+        <v>0.54515999999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.53893999999999997</v>
+      </c>
+      <c r="D7">
+        <v>0.56728000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="F7">
+        <v>0.50471999999999995</v>
+      </c>
+      <c r="G7">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="H7">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="I7">
+        <v>0.54105999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.53639999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.53961999999999999</v>
+      </c>
+      <c r="L7">
+        <v>0.55678000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.55330000000000001</v>
+      </c>
+      <c r="N7">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.55208000000000002</v>
+      </c>
+      <c r="P7">
+        <v>0.57194</v>
+      </c>
+      <c r="Q7">
+        <v>0.55045999999999995</v>
+      </c>
+      <c r="R7">
+        <v>0.56088000000000005</v>
+      </c>
+      <c r="S7">
+        <v>0.53737999999999997</v>
+      </c>
+      <c r="T7">
+        <v>0.53961999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.52981999999999996</v>
+      </c>
+      <c r="V7">
+        <v>0.52558000000000005</v>
+      </c>
+      <c r="W7">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="X7">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="Y7">
+        <v>0.52293999999999996</v>
+      </c>
+      <c r="Z7">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="AA7">
+        <v>0.53557999999999995</v>
+      </c>
+      <c r="AB7">
+        <v>0.56555999999999995</v>
+      </c>
+      <c r="AC7">
+        <v>0.53047999999999995</v>
+      </c>
+      <c r="AD7">
+        <v>0.57842000000000005</v>
+      </c>
+      <c r="AE7">
+        <v>0.56342000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>0.58686000000000005</v>
+      </c>
+      <c r="AG7">
+        <v>0.54196</v>
+      </c>
+      <c r="AH7">
+        <v>0.56323999999999996</v>
+      </c>
+      <c r="AI7">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="AJ7">
+        <v>0.51651999999999998</v>
+      </c>
+      <c r="AK7">
+        <v>0.52927999999999997</v>
+      </c>
+      <c r="AL7">
+        <v>0.55456000000000005</v>
+      </c>
+      <c r="AM7">
+        <v>0.54461999999999999</v>
+      </c>
+      <c r="AN7">
+        <v>0.52125999999999995</v>
+      </c>
+      <c r="AO7">
+        <v>0.54054000000000002</v>
+      </c>
+      <c r="AP7">
+        <v>0.56162000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.54227999999999998</v>
+      </c>
+      <c r="AR7">
+        <v>0.52814000000000005</v>
+      </c>
+      <c r="AS7">
+        <v>0.55828</v>
+      </c>
+      <c r="AT7">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="AU7">
+        <v>0.57704</v>
+      </c>
+      <c r="AV7">
+        <v>0.55928</v>
+      </c>
+      <c r="AW7">
+        <v>0.54398000000000002</v>
+      </c>
+      <c r="AX7">
+        <v>0.55964000000000003</v>
+      </c>
+      <c r="AY7">
+        <v>0.54278000000000004</v>
+      </c>
+      <c r="AZ7">
+        <v>0.52749999999999997</v>
+      </c>
+      <c r="BA7">
+        <v>0.56388000000000005</v>
+      </c>
+      <c r="BB7">
+        <v>0.56703999999999999</v>
+      </c>
+      <c r="BC7">
+        <v>0.53102000000000005</v>
+      </c>
+      <c r="BD7">
+        <v>0.54312000000000005</v>
+      </c>
+      <c r="BE7">
+        <v>0.53173999999999999</v>
+      </c>
+      <c r="BF7">
+        <v>0.54471999999999998</v>
+      </c>
+      <c r="BG7">
+        <v>0.54017999999999999</v>
+      </c>
+      <c r="BH7">
+        <v>0.56805000000000005</v>
+      </c>
+      <c r="BI7">
+        <v>0.55152000000000001</v>
+      </c>
+      <c r="BJ7">
+        <v>0.53917999999999999</v>
+      </c>
+      <c r="BK7">
+        <v>0.51917999999999997</v>
+      </c>
+      <c r="BL7">
+        <v>0.56086000000000003</v>
+      </c>
+      <c r="BM7">
+        <v>0.53</v>
+      </c>
+      <c r="BN7">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="BO7">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="BP7">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="BQ7">
+        <v>0.53481999999999996</v>
+      </c>
+      <c r="BR7">
+        <v>0.54437999999999998</v>
+      </c>
+      <c r="BS7">
+        <v>0.56313999999999997</v>
+      </c>
+      <c r="BT7">
+        <v>0.53613999999999995</v>
+      </c>
+      <c r="BU7">
+        <v>0.52764</v>
+      </c>
+      <c r="BV7">
+        <v>0.53605999999999998</v>
+      </c>
+      <c r="BW7">
+        <v>0.52215999999999996</v>
+      </c>
+      <c r="BX7">
+        <v>0.54849999999999999</v>
+      </c>
+      <c r="BY7">
+        <v>0.57538</v>
+      </c>
+      <c r="BZ7">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="CA7">
+        <v>0.54468000000000005</v>
+      </c>
+      <c r="CB7">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="CC7">
+        <v>0.53942000000000001</v>
+      </c>
+      <c r="CD7">
+        <v>0.51576</v>
+      </c>
+      <c r="CE7">
+        <v>0.56344000000000005</v>
+      </c>
+      <c r="CF7">
+        <v>0.55547999999999997</v>
+      </c>
+      <c r="CG7">
+        <v>0.56006</v>
+      </c>
+      <c r="CH7">
+        <v>0.54535999999999996</v>
+      </c>
+      <c r="CI7">
+        <v>0.55557999999999996</v>
+      </c>
+      <c r="CJ7">
+        <v>0.53724000000000005</v>
+      </c>
+      <c r="CK7">
+        <v>0.54934000000000005</v>
+      </c>
+      <c r="CL7">
+        <v>0.54264000000000001</v>
+      </c>
+      <c r="CM7">
+        <v>0.54798000000000002</v>
+      </c>
+      <c r="CN7">
+        <v>0.54808000000000001</v>
+      </c>
+      <c r="CO7">
+        <v>0.54237999999999997</v>
+      </c>
+      <c r="CP7">
+        <v>0.56233999999999995</v>
+      </c>
+      <c r="CQ7">
+        <v>0.53295999999999999</v>
+      </c>
+      <c r="CR7">
+        <v>0.55471999999999999</v>
+      </c>
+      <c r="CS7">
+        <v>0.52924000000000004</v>
+      </c>
+      <c r="CT7">
+        <v>0.51378000000000001</v>
+      </c>
+      <c r="CU7">
+        <v>0.54881999999999997</v>
+      </c>
+      <c r="CV7">
+        <v>0.53866000000000003</v>
+      </c>
+      <c r="CW7">
+        <v>0.54476590000000014</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0.52698</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.54823999999999995</v>
+      </c>
+      <c r="B8">
+        <v>0.52381999999999995</v>
+      </c>
+      <c r="C8">
+        <v>0.54590000000000005</v>
+      </c>
+      <c r="D8">
+        <v>0.55278000000000005</v>
+      </c>
+      <c r="E8">
+        <v>0.52071999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.54203999999999997</v>
+      </c>
+      <c r="G8">
+        <v>0.51034999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.52388000000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.53691999999999995</v>
+      </c>
+      <c r="J8">
+        <v>0.52654000000000001</v>
+      </c>
+      <c r="K8">
+        <v>0.53186</v>
+      </c>
+      <c r="L8">
+        <v>0.54612000000000005</v>
+      </c>
+      <c r="M8">
+        <v>0.56093999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.54637999999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.52185999999999999</v>
+      </c>
+      <c r="P8">
+        <v>0.53905999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.53768000000000005</v>
+      </c>
+      <c r="R8">
+        <v>0.54091999999999996</v>
+      </c>
+      <c r="S8">
+        <v>0.54568000000000005</v>
+      </c>
+      <c r="T8">
+        <v>0.54257999999999995</v>
+      </c>
+      <c r="U8">
+        <v>0.53269999999999995</v>
+      </c>
+      <c r="V8">
+        <v>0.53895999999999999</v>
+      </c>
+      <c r="W8">
+        <v>0.55918000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.52844000000000002</v>
+      </c>
+      <c r="Y8">
+        <v>0.54469999999999996</v>
+      </c>
+      <c r="Z8">
+        <v>0.55001999999999995</v>
+      </c>
+      <c r="AA8">
+        <v>0.53073999999999999</v>
+      </c>
+      <c r="AB8">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="AC8">
+        <v>0.54820000000000002</v>
+      </c>
+      <c r="AD8">
+        <v>0.52288000000000001</v>
+      </c>
+      <c r="AE8">
+        <v>0.55464000000000002</v>
+      </c>
+      <c r="AF8">
+        <v>0.53047999999999995</v>
+      </c>
+      <c r="AG8">
+        <v>0.52054</v>
+      </c>
+      <c r="AH8">
+        <v>0.53525999999999996</v>
+      </c>
+      <c r="AI8">
+        <v>0.5151</v>
+      </c>
+      <c r="AJ8">
+        <v>0.53535999999999995</v>
+      </c>
+      <c r="AK8">
+        <v>0.52773999999999999</v>
+      </c>
+      <c r="AL8">
+        <v>0.54025999999999996</v>
+      </c>
+      <c r="AM8">
+        <v>0.54169999999999996</v>
+      </c>
+      <c r="AN8">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="AO8">
+        <v>0.53942000000000001</v>
+      </c>
+      <c r="AP8">
+        <v>0.53483999999999998</v>
+      </c>
+      <c r="AQ8">
+        <v>0.56218000000000001</v>
+      </c>
+      <c r="AR8">
+        <v>0.52614000000000005</v>
+      </c>
+      <c r="AS8">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="AT8">
+        <v>0.52786</v>
+      </c>
+      <c r="AU8">
+        <v>0.55434000000000005</v>
+      </c>
+      <c r="AV8">
+        <v>0.52173999999999998</v>
+      </c>
+      <c r="AW8">
+        <v>0.53383999999999998</v>
+      </c>
+      <c r="AX8">
+        <v>0.53708</v>
+      </c>
+      <c r="AY8">
+        <v>0.54147999999999996</v>
+      </c>
+      <c r="AZ8">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="BA8">
+        <v>0.53576000000000001</v>
+      </c>
+      <c r="BB8">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="BC8">
+        <v>0.48974000000000001</v>
+      </c>
+      <c r="BD8">
+        <v>0.55752000000000002</v>
+      </c>
+      <c r="BE8">
+        <v>0.50456000000000001</v>
+      </c>
+      <c r="BF8">
+        <v>0.54164000000000001</v>
+      </c>
+      <c r="BG8">
+        <v>0.52376</v>
+      </c>
+      <c r="BH8">
+        <v>0.56181999999999999</v>
+      </c>
+      <c r="BI8">
+        <v>0.50719999999999998</v>
+      </c>
+      <c r="BJ8">
+        <v>0.51934000000000002</v>
+      </c>
+      <c r="BK8">
+        <v>0.51805999999999996</v>
+      </c>
+      <c r="BL8">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="BM8">
+        <v>0.52737999999999996</v>
+      </c>
+      <c r="BN8">
+        <v>0.55281999999999998</v>
+      </c>
+      <c r="BO8">
+        <v>0.54596</v>
+      </c>
+      <c r="BP8">
+        <v>0.53044000000000002</v>
+      </c>
+      <c r="BQ8">
+        <v>0.55815999999999999</v>
+      </c>
+      <c r="BR8">
+        <v>0.55737999999999999</v>
+      </c>
+      <c r="BS8">
+        <v>0.54337999999999997</v>
+      </c>
+      <c r="BT8">
+        <v>0.53366000000000002</v>
+      </c>
+      <c r="BU8">
+        <v>0.57001999999999997</v>
+      </c>
+      <c r="BV8">
+        <v>0.53224000000000005</v>
+      </c>
+      <c r="BW8">
         <v>0.53752</v>
       </c>
-      <c r="C7">
-        <v>0.53225</v>
+      <c r="BX8">
+        <v>0.51526000000000005</v>
+      </c>
+      <c r="BY8">
+        <v>0.51332</v>
+      </c>
+      <c r="BZ8">
+        <v>0.57096000000000002</v>
+      </c>
+      <c r="CA8">
+        <v>0.54293999999999998</v>
+      </c>
+      <c r="CB8">
+        <v>0.52451999999999999</v>
+      </c>
+      <c r="CC8">
+        <v>0.53783999999999998</v>
+      </c>
+      <c r="CD8">
+        <v>0.51136000000000004</v>
+      </c>
+      <c r="CE8">
+        <v>0.50507999999999997</v>
+      </c>
+      <c r="CF8">
+        <v>0.52458000000000005</v>
+      </c>
+      <c r="CG8">
+        <v>0.52995999999999999</v>
+      </c>
+      <c r="CH8">
+        <v>0.54835999999999996</v>
+      </c>
+      <c r="CI8">
+        <v>0.53713999999999995</v>
+      </c>
+      <c r="CJ8">
+        <v>0.52873999999999999</v>
+      </c>
+      <c r="CK8">
+        <v>0.53932000000000002</v>
+      </c>
+      <c r="CL8">
+        <v>0.53324000000000005</v>
+      </c>
+      <c r="CM8">
+        <v>0.52632000000000001</v>
+      </c>
+      <c r="CN8">
+        <v>0.52905999999999997</v>
+      </c>
+      <c r="CO8">
+        <v>0.53764000000000001</v>
+      </c>
+      <c r="CP8">
+        <v>0.54813999999999996</v>
+      </c>
+      <c r="CQ8">
+        <v>0.55842000000000003</v>
+      </c>
+      <c r="CR8">
+        <v>0.55752000000000002</v>
+      </c>
+      <c r="CS8">
+        <v>0.52229999999999999</v>
+      </c>
+      <c r="CT8">
+        <v>0.54942000000000002</v>
+      </c>
+      <c r="CU8">
+        <v>0.53957999999999995</v>
+      </c>
+      <c r="CV8">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="CW8">
+        <v>0.53646170000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>0.50017999999999996</v>
-      </c>
-      <c r="B8">
-        <v>0.53212000000000004</v>
-      </c>
-      <c r="C8">
-        <v>0.51615</v>
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>0.52942</v>
+      </c>
+      <c r="B9">
+        <v>0.54693999999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.52881999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.53932000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.53435999999999995</v>
+      </c>
+      <c r="F9">
+        <v>0.52978000000000003</v>
+      </c>
+      <c r="G9">
+        <v>0.55972</v>
+      </c>
+      <c r="H9">
+        <v>0.52947999999999995</v>
+      </c>
+      <c r="I9">
+        <v>0.52361999999999997</v>
+      </c>
+      <c r="J9">
+        <v>0.52851999999999999</v>
+      </c>
+      <c r="K9">
+        <v>0.54134000000000004</v>
+      </c>
+      <c r="L9">
+        <v>0.52727999999999997</v>
+      </c>
+      <c r="M9">
+        <v>0.55610000000000004</v>
+      </c>
+      <c r="N9">
+        <v>0.54376000000000002</v>
+      </c>
+      <c r="O9">
+        <v>0.54034000000000004</v>
+      </c>
+      <c r="P9">
+        <v>0.52507999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.56093999999999999</v>
+      </c>
+      <c r="R9">
+        <v>0.52776000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.55657999999999996</v>
+      </c>
+      <c r="T9">
+        <v>0.55579999999999996</v>
+      </c>
+      <c r="U9">
+        <v>0.50727999999999995</v>
+      </c>
+      <c r="V9">
+        <v>0.53515999999999997</v>
+      </c>
+      <c r="W9">
+        <v>0.53893999999999997</v>
+      </c>
+      <c r="X9">
+        <v>0.53971999999999998</v>
+      </c>
+      <c r="Y9">
+        <v>0.52003999999999995</v>
+      </c>
+      <c r="Z9">
+        <v>0.53881999999999997</v>
+      </c>
+      <c r="AA9">
+        <v>0.54237999999999997</v>
+      </c>
+      <c r="AB9">
+        <v>0.51468000000000003</v>
+      </c>
+      <c r="AC9">
+        <v>0.54842000000000002</v>
+      </c>
+      <c r="AD9">
+        <v>0.54449999999999998</v>
+      </c>
+      <c r="AE9">
+        <v>0.55178000000000005</v>
+      </c>
+      <c r="AF9">
+        <v>0.55386000000000002</v>
+      </c>
+      <c r="AG9">
+        <v>0.54224000000000006</v>
+      </c>
+      <c r="AH9">
+        <v>0.56330000000000002</v>
+      </c>
+      <c r="AI9">
+        <v>0.53046000000000004</v>
+      </c>
+      <c r="AJ9">
+        <v>0.51117999999999997</v>
+      </c>
+      <c r="AK9">
+        <v>0.53444000000000003</v>
+      </c>
+      <c r="AL9">
+        <v>0.52692000000000005</v>
+      </c>
+      <c r="AM9">
+        <v>0.54752000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="AO9">
+        <v>0.55659999999999998</v>
+      </c>
+      <c r="AP9">
+        <v>0.54564000000000001</v>
+      </c>
+      <c r="AQ9">
+        <v>0.52398</v>
+      </c>
+      <c r="AR9">
+        <v>0.52737999999999996</v>
+      </c>
+      <c r="AS9">
+        <v>0.52193999999999996</v>
+      </c>
+      <c r="AT9">
+        <v>0.52415999999999996</v>
+      </c>
+      <c r="AU9">
+        <v>0.53986000000000001</v>
+      </c>
+      <c r="AV9">
+        <v>0.55234000000000005</v>
+      </c>
+      <c r="AW9">
+        <v>0.53280000000000005</v>
+      </c>
+      <c r="AX9">
+        <v>0.53337999999999997</v>
+      </c>
+      <c r="AY9">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="AZ9">
+        <v>0.50641999999999998</v>
+      </c>
+      <c r="BA9">
+        <v>0.54342000000000001</v>
+      </c>
+      <c r="BB9">
+        <v>0.55234000000000005</v>
+      </c>
+      <c r="BC9">
+        <v>0.55944000000000005</v>
+      </c>
+      <c r="BD9">
+        <v>0.53934000000000004</v>
+      </c>
+      <c r="BE9">
+        <v>0.54101999999999995</v>
+      </c>
+      <c r="BF9">
+        <v>0.56269999999999998</v>
+      </c>
+      <c r="BG9">
+        <v>0.53846000000000005</v>
+      </c>
+      <c r="BH9">
+        <v>0.53634000000000004</v>
+      </c>
+      <c r="BI9">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="BJ9">
+        <v>0.53102000000000005</v>
+      </c>
+      <c r="BK9">
+        <v>0.55845999999999996</v>
+      </c>
+      <c r="BL9">
+        <v>0.53342000000000001</v>
+      </c>
+      <c r="BM9">
+        <v>0.52510000000000001</v>
+      </c>
+      <c r="BN9">
+        <v>0.55025999999999997</v>
+      </c>
+      <c r="BO9">
+        <v>0.50619999999999998</v>
+      </c>
+      <c r="BP9">
+        <v>0.52495999999999998</v>
+      </c>
+      <c r="BQ9">
+        <v>0.53688000000000002</v>
+      </c>
+      <c r="BR9">
+        <v>0.51880000000000004</v>
+      </c>
+      <c r="BS9">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="BT9">
+        <v>0.51924000000000003</v>
+      </c>
+      <c r="BU9">
+        <v>0.54152</v>
+      </c>
+      <c r="BV9">
+        <v>0.53868000000000005</v>
+      </c>
+      <c r="BW9">
+        <v>0.51883999999999997</v>
+      </c>
+      <c r="BX9">
+        <v>0.56206</v>
+      </c>
+      <c r="BY9">
+        <v>0.53203999999999996</v>
+      </c>
+      <c r="BZ9">
+        <v>0.53786</v>
+      </c>
+      <c r="CA9">
+        <v>0.55415999999999999</v>
+      </c>
+      <c r="CB9">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="CC9">
+        <v>0.53486</v>
+      </c>
+      <c r="CD9">
+        <v>0.54613999999999996</v>
+      </c>
+      <c r="CE9">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="CF9">
+        <v>0.54281999999999997</v>
+      </c>
+      <c r="CG9">
+        <v>0.52537999999999996</v>
+      </c>
+      <c r="CH9">
+        <v>0.51336000000000004</v>
+      </c>
+      <c r="CI9">
+        <v>0.53312000000000004</v>
+      </c>
+      <c r="CJ9">
+        <v>0.54437999999999998</v>
+      </c>
+      <c r="CK9">
+        <v>0.53776000000000002</v>
+      </c>
+      <c r="CL9">
+        <v>0.51656000000000002</v>
+      </c>
+      <c r="CM9">
+        <v>0.52995999999999999</v>
+      </c>
+      <c r="CN9">
+        <v>0.52336000000000005</v>
+      </c>
+      <c r="CO9">
+        <v>0.55820000000000003</v>
+      </c>
+      <c r="CP9">
+        <v>0.51158000000000003</v>
+      </c>
+      <c r="CQ9">
+        <v>0.52939999999999998</v>
+      </c>
+      <c r="CR9">
+        <v>0.55027999999999999</v>
+      </c>
+      <c r="CS9">
+        <v>0.55628</v>
+      </c>
+      <c r="CT9">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="CU9">
+        <v>0.53924000000000005</v>
+      </c>
+      <c r="CV9">
+        <v>0.54652000000000001</v>
+      </c>
+      <c r="CW9">
+        <v>0.5367472000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>0.50278</v>
-      </c>
-      <c r="B9">
-        <v>0.55878000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.53078000000000003</v>
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.50593999999999995</v>
+      </c>
+      <c r="B10">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="C10">
+        <v>0.51285999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.51778000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.52576000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.54466000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.51578000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.51980000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.54247999999999996</v>
+      </c>
+      <c r="J10">
+        <v>0.54762</v>
+      </c>
+      <c r="K10">
+        <v>0.52944000000000002</v>
+      </c>
+      <c r="L10">
+        <v>0.50716000000000006</v>
+      </c>
+      <c r="M10">
+        <v>0.52827999999999997</v>
+      </c>
+      <c r="N10">
+        <v>0.55320000000000003</v>
+      </c>
+      <c r="O10">
+        <v>0.51156000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="Q10">
+        <v>0.53822000000000003</v>
+      </c>
+      <c r="R10">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="S10">
+        <v>0.51759999999999995</v>
+      </c>
+      <c r="T10">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="U10">
+        <v>0.53344000000000003</v>
+      </c>
+      <c r="V10">
+        <v>0.52991999999999995</v>
+      </c>
+      <c r="W10">
+        <v>0.53005999999999998</v>
+      </c>
+      <c r="X10">
+        <v>0.52090000000000003</v>
+      </c>
+      <c r="Y10">
+        <v>0.53136000000000005</v>
+      </c>
+      <c r="Z10">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="AA10">
+        <v>0.55237999999999998</v>
+      </c>
+      <c r="AB10">
+        <v>0.53468000000000004</v>
+      </c>
+      <c r="AC10">
+        <v>0.53561999999999999</v>
+      </c>
+      <c r="AD10">
+        <v>0.54337999999999997</v>
+      </c>
+      <c r="AE10">
+        <v>0.52344000000000002</v>
+      </c>
+      <c r="AF10">
+        <v>0.53685000000000005</v>
+      </c>
+      <c r="AG10">
+        <v>0.51071999999999995</v>
+      </c>
+      <c r="AH10">
+        <v>0.54203999999999997</v>
+      </c>
+      <c r="AI10">
+        <v>0.53325999999999996</v>
+      </c>
+      <c r="AJ10">
+        <v>0.55454000000000003</v>
+      </c>
+      <c r="AK10">
+        <v>0.53281999999999996</v>
+      </c>
+      <c r="AL10">
+        <v>0.53815999999999997</v>
+      </c>
+      <c r="AM10">
+        <v>0.53356000000000003</v>
+      </c>
+      <c r="AN10">
+        <v>0.54369999999999996</v>
+      </c>
+      <c r="AO10">
+        <v>0.54527999999999999</v>
+      </c>
+      <c r="AP10">
+        <v>0.50294000000000005</v>
+      </c>
+      <c r="AQ10">
+        <v>0.52915999999999996</v>
+      </c>
+      <c r="AR10">
+        <v>0.52934000000000003</v>
+      </c>
+      <c r="AS10">
+        <v>0.52095999999999998</v>
+      </c>
+      <c r="AT10">
+        <v>0.51966000000000001</v>
+      </c>
+      <c r="AU10">
+        <v>0.51088</v>
+      </c>
+      <c r="AV10">
+        <v>0.52849999999999997</v>
+      </c>
+      <c r="AW10">
+        <v>0.51373999999999997</v>
+      </c>
+      <c r="AX10">
+        <v>0.55189999999999995</v>
+      </c>
+      <c r="AY10">
+        <v>0.50151999999999997</v>
+      </c>
+      <c r="AZ10">
+        <v>0.54137999999999997</v>
+      </c>
+      <c r="BA10">
+        <v>0.52991999999999995</v>
+      </c>
+      <c r="BB10">
+        <v>0.54561999999999999</v>
+      </c>
+      <c r="BC10">
+        <v>0.53537999999999997</v>
+      </c>
+      <c r="BD10">
+        <v>0.52824000000000004</v>
+      </c>
+      <c r="BE10">
+        <v>0.52549999999999997</v>
+      </c>
+      <c r="BF10">
+        <v>0.53810000000000002</v>
+      </c>
+      <c r="BG10">
+        <v>0.52232000000000001</v>
+      </c>
+      <c r="BH10">
+        <v>0.52725999999999995</v>
+      </c>
+      <c r="BI10">
+        <v>0.54579999999999995</v>
+      </c>
+      <c r="BJ10">
+        <v>0.49994</v>
+      </c>
+      <c r="BK10">
+        <v>0.53266000000000002</v>
+      </c>
+      <c r="BL10">
+        <v>0.52969999999999995</v>
+      </c>
+      <c r="BM10">
+        <v>0.54213999999999996</v>
+      </c>
+      <c r="BN10">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="BO10">
+        <v>0.53573999999999999</v>
+      </c>
+      <c r="BP10">
+        <v>0.54644000000000004</v>
+      </c>
+      <c r="BQ10">
+        <v>0.53258000000000005</v>
+      </c>
+      <c r="BR10">
+        <v>0.56084000000000001</v>
+      </c>
+      <c r="BS10">
+        <v>0.52027999999999996</v>
+      </c>
+      <c r="BT10">
+        <v>0.52495999999999998</v>
+      </c>
+      <c r="BU10">
+        <v>0.52585999999999999</v>
+      </c>
+      <c r="BV10">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="BW10">
+        <v>0.53820000000000001</v>
+      </c>
+      <c r="BX10">
+        <v>0.53561999999999999</v>
+      </c>
+      <c r="BY10">
+        <v>0.54134000000000004</v>
+      </c>
+      <c r="BZ10">
+        <v>0.50971999999999995</v>
+      </c>
+      <c r="CA10">
+        <v>0.52092000000000005</v>
+      </c>
+      <c r="CB10">
+        <v>0.51792000000000005</v>
+      </c>
+      <c r="CC10">
+        <v>0.55127999999999999</v>
+      </c>
+      <c r="CD10">
+        <v>0.54547999999999996</v>
+      </c>
+      <c r="CE10">
+        <v>0.50958000000000003</v>
+      </c>
+      <c r="CF10">
+        <v>0.52225999999999995</v>
+      </c>
+      <c r="CG10">
+        <v>0.53129999999999999</v>
+      </c>
+      <c r="CH10">
+        <v>0.52295999999999998</v>
+      </c>
+      <c r="CI10">
+        <v>0.51837999999999995</v>
+      </c>
+      <c r="CJ10">
+        <v>0.52734000000000003</v>
+      </c>
+      <c r="CK10">
+        <v>0.53317999999999999</v>
+      </c>
+      <c r="CL10">
+        <v>0.52424000000000004</v>
+      </c>
+      <c r="CM10">
+        <v>0.53266000000000002</v>
+      </c>
+      <c r="CN10">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="CO10">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="CP10">
+        <v>0.5262</v>
+      </c>
+      <c r="CQ10">
+        <v>0.52439999999999998</v>
+      </c>
+      <c r="CR10">
+        <v>0.54074</v>
+      </c>
+      <c r="CS10">
+        <v>0.53258000000000005</v>
+      </c>
+      <c r="CT10">
+        <v>0.52110000000000001</v>
+      </c>
+      <c r="CU10">
+        <v>0.5071</v>
+      </c>
+      <c r="CV10">
+        <v>0.51832</v>
+      </c>
+      <c r="CW10">
+        <v>0.53002430000000023</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.54005999999999998</v>
-      </c>
-      <c r="B10">
-        <v>0.52439999999999998</v>
-      </c>
-      <c r="C10">
-        <v>0.53222999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.54100000000000004</v>
+        <v>0.52727999999999997</v>
       </c>
       <c r="B11">
-        <v>0.53410000000000002</v>
+        <v>0.53083999999999998</v>
       </c>
       <c r="C11">
-        <v>0.53754999999999997</v>
+        <v>0.53088000000000002</v>
+      </c>
+      <c r="D11">
+        <v>0.52759999999999996</v>
+      </c>
+      <c r="E11">
+        <v>0.51482000000000006</v>
+      </c>
+      <c r="F11">
+        <v>0.52681999999999995</v>
+      </c>
+      <c r="G11">
+        <v>0.53349999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.53881999999999997</v>
+      </c>
+      <c r="I11">
+        <v>0.53868000000000005</v>
+      </c>
+      <c r="J11">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="K11">
+        <v>0.54586000000000001</v>
+      </c>
+      <c r="L11">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="M11">
+        <v>0.52983999999999998</v>
+      </c>
+      <c r="N11">
+        <v>0.5091</v>
+      </c>
+      <c r="O11">
+        <v>0.53786</v>
+      </c>
+      <c r="P11">
+        <v>0.52393999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>0.52954000000000001</v>
+      </c>
+      <c r="R11">
+        <v>0.55010000000000003</v>
+      </c>
+      <c r="S11">
+        <v>0.51649999999999996</v>
+      </c>
+      <c r="T11">
+        <v>0.52854000000000001</v>
+      </c>
+      <c r="U11">
+        <v>0.52712000000000003</v>
+      </c>
+      <c r="V11">
+        <v>0.55632000000000004</v>
+      </c>
+      <c r="W11">
+        <v>0.51951999999999998</v>
+      </c>
+      <c r="X11">
+        <v>0.52012000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.52302000000000004</v>
+      </c>
+      <c r="Z11">
+        <v>0.51356000000000002</v>
+      </c>
+      <c r="AA11">
+        <v>0.54274</v>
+      </c>
+      <c r="AB11">
+        <v>0.50990000000000002</v>
+      </c>
+      <c r="AC11">
+        <v>0.5292</v>
+      </c>
+      <c r="AD11">
+        <v>0.53115999999999997</v>
+      </c>
+      <c r="AE11">
+        <v>0.52178000000000002</v>
+      </c>
+      <c r="AF11">
+        <v>0.54756000000000005</v>
+      </c>
+      <c r="AG11">
+        <v>0.51873999999999998</v>
+      </c>
+      <c r="AH11">
+        <v>0.51356000000000002</v>
+      </c>
+      <c r="AI11">
+        <v>0.53481999999999996</v>
+      </c>
+      <c r="AJ11">
+        <v>0.51722000000000001</v>
+      </c>
+      <c r="AK11">
+        <v>0.54825999999999997</v>
+      </c>
+      <c r="AL11">
+        <v>0.52729999999999999</v>
+      </c>
+      <c r="AM11">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="AN11">
+        <v>0.52415999999999996</v>
+      </c>
+      <c r="AO11">
+        <v>0.53125999999999995</v>
+      </c>
+      <c r="AP11">
+        <v>0.50949999999999995</v>
+      </c>
+      <c r="AQ11">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="AR11">
+        <v>0.51768000000000003</v>
+      </c>
+      <c r="AS11">
+        <v>0.51688000000000001</v>
+      </c>
+      <c r="AT11">
+        <v>0.52649999999999997</v>
+      </c>
+      <c r="AU11">
+        <v>0.51871999999999996</v>
+      </c>
+      <c r="AV11">
+        <v>0.53805999999999998</v>
+      </c>
+      <c r="AW11">
+        <v>0.53549000000000002</v>
+      </c>
+      <c r="AX11">
+        <v>0.54476000000000002</v>
+      </c>
+      <c r="AY11">
+        <v>0.52937999999999996</v>
+      </c>
+      <c r="AZ11">
+        <v>0.55159999999999998</v>
+      </c>
+      <c r="BA11">
+        <v>0.51680000000000004</v>
+      </c>
+      <c r="BB11">
+        <v>0.52449999999999997</v>
+      </c>
+      <c r="BC11">
+        <v>0.52807999999999999</v>
+      </c>
+      <c r="BD11">
+        <v>0.54959999999999998</v>
+      </c>
+      <c r="BE11">
+        <v>0.53249999999999997</v>
+      </c>
+      <c r="BF11">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="BG11">
+        <v>0.51915999999999995</v>
+      </c>
+      <c r="BH11">
+        <v>0.53542000000000001</v>
+      </c>
+      <c r="BI11">
+        <v>0.53080000000000005</v>
+      </c>
+      <c r="BJ11">
+        <v>0.53603999999999996</v>
+      </c>
+      <c r="BK11">
+        <v>0.51770000000000005</v>
+      </c>
+      <c r="BL11">
+        <v>0.53996</v>
+      </c>
+      <c r="BM11">
+        <v>0.54535999999999996</v>
+      </c>
+      <c r="BN11">
+        <v>0.53783999999999998</v>
+      </c>
+      <c r="BO11">
+        <v>0.54474</v>
+      </c>
+      <c r="BP11">
+        <v>0.51371999999999995</v>
+      </c>
+      <c r="BQ11">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="BR11">
+        <v>0.54320000000000002</v>
+      </c>
+      <c r="BS11">
+        <v>0.52678000000000003</v>
+      </c>
+      <c r="BT11">
+        <v>0.53158000000000005</v>
+      </c>
+      <c r="BU11">
+        <v>0.51848000000000005</v>
+      </c>
+      <c r="BV11">
+        <v>0.56898000000000004</v>
+      </c>
+      <c r="BW11">
+        <v>0.51817999999999997</v>
+      </c>
+      <c r="BX11">
+        <v>0.52015999999999996</v>
+      </c>
+      <c r="BY11">
+        <v>0.53305999999999998</v>
+      </c>
+      <c r="BZ11">
+        <v>0.51958000000000004</v>
+      </c>
+      <c r="CA11">
+        <v>0.54325999999999997</v>
+      </c>
+      <c r="CB11">
+        <v>0.55267999999999995</v>
+      </c>
+      <c r="CC11">
+        <v>0.5302</v>
+      </c>
+      <c r="CD11">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="CE11">
+        <v>0.54071000000000002</v>
+      </c>
+      <c r="CF11">
+        <v>0.53434000000000004</v>
+      </c>
+      <c r="CG11">
+        <v>0.52332000000000001</v>
+      </c>
+      <c r="CH11">
+        <v>0.51924000000000003</v>
+      </c>
+      <c r="CI11">
+        <v>0.55254000000000003</v>
+      </c>
+      <c r="CJ11">
+        <v>0.55810000000000004</v>
+      </c>
+      <c r="CK11">
+        <v>0.54039999999999999</v>
+      </c>
+      <c r="CL11">
+        <v>0.51156000000000001</v>
+      </c>
+      <c r="CM11">
+        <v>0.55525999999999998</v>
+      </c>
+      <c r="CN11">
+        <v>0.52024999999999999</v>
+      </c>
+      <c r="CO11">
+        <v>0.53088000000000002</v>
+      </c>
+      <c r="CP11">
+        <v>0.53691999999999995</v>
+      </c>
+      <c r="CQ11">
+        <v>0.51795999999999998</v>
+      </c>
+      <c r="CR11">
+        <v>0.53044000000000002</v>
+      </c>
+      <c r="CS11">
+        <v>0.55879999999999996</v>
+      </c>
+      <c r="CT11">
+        <v>0.52263999999999999</v>
+      </c>
+      <c r="CU11">
+        <v>0.53044000000000002</v>
+      </c>
+      <c r="CV11">
+        <v>0.52037999999999995</v>
+      </c>
+      <c r="CW11">
+        <v>0.53055449999999993</v>
       </c>
     </row>
   </sheetData>
